--- a/OSEF.ERP.APP/preciariosGenerales/obrapequeño.xlsx
+++ b/OSEF.ERP.APP/preciariosGenerales/obrapequeño.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osef\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">RETIRO DE BISAGRA HIDRÁULICA JACKSON CON RECUPERACIÓN, INCLUYE; RETIRO DE TAPA Y MAZA PRINCIPAL, DEMOLICIÓN PERIMETRALMENTE PARA SACAR CHAROLA, (10 CM DE PROFUNDIDAD) RESANE DE HUECO DE 0.50 X 0.40 X 0.10 M CON MORTERO 1:4, LIMPIEZA DE TECATAS DE LA CHAROLA, MANO DE OBRA, HERRAMIENTAS, EQUIPO, ACARREOS Y LIMPIEZA PROPIA DEL CONCEPTO. </t>
+  </si>
+  <si>
+    <t>Moneda</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1209" sqref="A27:XFD1209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +802,7 @@
     <col min="2" max="2" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,8 +821,11 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -833,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -847,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -861,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
@@ -877,7 +883,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -893,7 +899,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -909,7 +915,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -925,7 +931,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -941,7 +947,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
@@ -955,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>25</v>
       </c>
@@ -971,7 +977,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>28</v>
       </c>
@@ -987,7 +993,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
@@ -1033,7 +1039,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>37</v>
       </c>

--- a/OSEF.ERP.APP/preciariosGenerales/obrapequeño.xlsx
+++ b/OSEF.ERP.APP/preciariosGenerales/obrapequeño.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osef\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
